--- a/data/case1/5/Qlm2_1.xlsx
+++ b/data/case1/5/Qlm2_1.xlsx
@@ -56,264 +56,264 @@
   <dimension ref="A1:B32"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="16.28515625" customWidth="true"/>
-    <col min="2" max="2" width="16.42578125" customWidth="true"/>
+    <col min="1" max="1" width="16.42578125" customWidth="true"/>
+    <col min="2" max="2" width="15.7109375" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0">
-        <v>-0.1182193897586501</v>
+        <v>-0.072341782119728748</v>
       </c>
       <c r="B1" s="0">
-        <v>0.11789073002735506</v>
+        <v>0.071903833112010318</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>-0.095788128516303139</v>
+        <v>-0.049799951110915508</v>
       </c>
       <c r="B2" s="0">
-        <v>0.094496727819288751</v>
+        <v>0.047987792109286609</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>-0.044782030073410084</v>
+        <v>-0.013519033185563245</v>
       </c>
       <c r="B3" s="0">
-        <v>0.044436707069467118</v>
+        <v>0.013155304836425685</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>-0.036436707142202707</v>
+        <v>-0.0051553049051502597</v>
       </c>
       <c r="B4" s="0">
-        <v>0.036132522367747555</v>
+        <v>0.0048287330481731061</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>-0.03313252240276654</v>
+        <v>-0.0018287330774731103</v>
       </c>
       <c r="B5" s="0">
-        <v>0.032111237267521631</v>
+        <v>0.00072268378440565328</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>-0.042889530387848041</v>
+        <v>-0.027336813389993608</v>
       </c>
       <c r="B6" s="0">
-        <v>0.042503202118936656</v>
+        <v>0.027181426428349198</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>-0.032503202214308136</v>
+        <v>-0.017181426513502185</v>
       </c>
       <c r="B7" s="0">
-        <v>0.032416751823087786</v>
+        <v>0.017157888745952921</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>-0.022416751921709555</v>
+        <v>-0.0071578888328454049</v>
       </c>
       <c r="B8" s="0">
-        <v>0.022283454685700477</v>
+        <v>0.0071443469570349194</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>-0.020283454724323136</v>
+        <v>-0.005144346981354353</v>
       </c>
       <c r="B9" s="0">
-        <v>0.020180619494058138</v>
+        <v>0.0051392528707432383</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>-0.018180619535689502</v>
+        <v>-0.0031392528956448729</v>
       </c>
       <c r="B10" s="0">
-        <v>0.018174865662071937</v>
+        <v>0.003139816688493724</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>-0.015174865711022001</v>
+        <v>-0.00013981672131802014</v>
       </c>
       <c r="B11" s="0">
-        <v>0.015166417991535397</v>
+        <v>0.0001401148658146667</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>-0.011666418045150451</v>
+        <v>0.0033598850974119188</v>
       </c>
       <c r="B12" s="0">
-        <v>0.011610588020314783</v>
+        <v>-0.0033648402363057883</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>-0.0081105880763958638</v>
+        <v>0.0068648402005058173</v>
       </c>
       <c r="B13" s="0">
-        <v>0.0080923936833139365</v>
+        <v>-0.0068748651080001721</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>-9.2393775531718347e-05</v>
+        <v>0.0029376949932995444</v>
       </c>
       <c r="B14" s="0">
-        <v>9.182587919998042e-05</v>
+        <v>-0.0029582785621578012</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>0.00090817408396137722</v>
+        <v>0.0039582785471905524</v>
       </c>
       <c r="B15" s="0">
-        <v>-0.00090812396071981993</v>
+        <v>-0.0039921196377932233</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>0.0029081239160140271</v>
+        <v>-0.0060331789275656078</v>
       </c>
       <c r="B16" s="0">
-        <v>-0.0029138952718716915</v>
+        <v>0.0060030563552131433</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>-0.0040032585266223109</v>
+        <v>-0.0040030563787514239</v>
       </c>
       <c r="B17" s="0">
-        <v>0.0039999999396727048</v>
+        <v>0.0039999999601896263</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>-0.016102601559687457</v>
+        <v>-0.016103882049591789</v>
       </c>
       <c r="B18" s="0">
-        <v>0.01609109204621717</v>
+        <v>0.016090711079520759</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>-0.012091092079320021</v>
+        <v>-0.012090711111411689</v>
       </c>
       <c r="B19" s="0">
-        <v>0.012016175900385395</v>
+        <v>0.01201583506891124</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>-0.0080161759359214102</v>
+        <v>-0.0080158351034871345</v>
       </c>
       <c r="B20" s="0">
-        <v>0.0080055580404962967</v>
+        <v>0.0080054046185242811</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>-0.0040055580764128962</v>
+        <v>-0.0040054046535722421</v>
       </c>
       <c r="B21" s="0">
-        <v>0.0039999999637831962</v>
+        <v>0.003999999964558576</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>-0.045714697784896785</v>
+        <v>-0.045716795297812141</v>
       </c>
       <c r="B22" s="0">
-        <v>0.045500830208606402</v>
+        <v>0.045502302064502231</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>-0.040500830258346276</v>
+        <v>-0.040502302111510957</v>
       </c>
       <c r="B23" s="0">
-        <v>0.040099296147965369</v>
+        <v>0.040099550393055239</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>-0.020099296321184568</v>
+        <v>-0.02009955056468371</v>
       </c>
       <c r="B24" s="0">
-        <v>0.019999999824313441</v>
+        <v>0.019999999825535575</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>-0.003778878110868078</v>
+        <v>0.028614129584420667</v>
       </c>
       <c r="B25" s="0">
-        <v>0.0037715055486202687</v>
+        <v>-0.028675309674259353</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>-0.0012715055836878264</v>
+        <v>-0.043758565840930075</v>
       </c>
       <c r="B26" s="0">
-        <v>0.0012635371363156622</v>
+        <v>0.043672370670336136</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>0.0012364628285586043</v>
+        <v>-0.041172370696490379</v>
       </c>
       <c r="B27" s="0">
-        <v>-0.0012785692258114878</v>
+        <v>0.0406778717873717</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>0.0032785691947951889</v>
+        <v>-0.03867787181669069</v>
       </c>
       <c r="B28" s="0">
-        <v>-0.0032973850159967455</v>
+        <v>0.038357714681326094</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>0.010297384945771704</v>
+        <v>-0.031357714755470667</v>
       </c>
       <c r="B29" s="0">
-        <v>-0.010299340100416998</v>
+        <v>0.031277205829508326</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>0.032259715698482072</v>
+        <v>0.028722793673420899</v>
       </c>
       <c r="B30" s="0">
-        <v>-0.032589975745415778</v>
+        <v>-0.028883337909609619</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>0.039589975680449641</v>
+        <v>0.035883337837940843</v>
       </c>
       <c r="B31" s="0">
-        <v>-0.039683654972652249</v>
+        <v>-0.035928983073318932</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>0.049683654885663842</v>
+        <v>-0.004000766471957462</v>
       </c>
       <c r="B32" s="0">
-        <v>-0.049797287243796617</v>
+        <v>0.0039999999537432274</v>
       </c>
     </row>
   </sheetData>
